--- a/biology/Botanique/Ail_doré/Ail_doré.xlsx
+++ b/biology/Botanique/Ail_doré/Ail_doré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ail_dor%C3%A9</t>
+          <t>Ail_doré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium moly
 L'ail doré, ou ail d'Espagne (Allium moly) est une espèce de plantes à fleurs du genre Allium (les ails ou aulx) et de la famille des Amaryllidacées. Il fleurit au printemps et se reconnaît notamment à la couleur dorée de ses fleurs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ail_dor%C3%A9</t>
+          <t>Ail_doré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-C'est une plante herbacée vivace érigée de petite taille (10 à 40 cm) à tige cylindrique, à bulbe plus ou moins ovoïde à tunique brunâtre et coriace. Chaque tige est accompagnée d'une ou deux feuilles lancéolées de 15 à 35 mm de largeur. Les feuilles sont en principe plus courtes que les tiges.
-Morphologie florale
-L'inflorescence est en ombelle plus ou moins semi-circulaire. Spathe s'ouvrant en deux valves courtes.
-Les fleurs sont hermaphrodites à six tépales (trois sépales et trois pétales similaires) de couleur jaune doré, s'ouvrant en étoile. Six étamines à filets et anthères jaunes. L'ovaire est supère à trois carpelles.
-Fruit et graines
-Le fruit est une capsule globuleuse.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace érigée de petite taille (10 à 40 cm) à tige cylindrique, à bulbe plus ou moins ovoïde à tunique brunâtre et coriace. Chaque tige est accompagnée d'une ou deux feuilles lancéolées de 15 à 35 mm de largeur. Les feuilles sont en principe plus courtes que les tiges.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ail_dor%C3%A9</t>
+          <t>Ail_doré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante herbacée géophyte bulbeuse poussant dans les lieux rocheux et frais ou les prairies de fauche (souvent sur calcaire), où elle fleurit de mai à juillet.
-Relativement rare, elle se rencontre surtout en Espagne et dans le sud de la France. Elle est également cultivée dans les jardins.
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est en ombelle plus ou moins semi-circulaire. Spathe s'ouvrant en deux valves courtes.
+Les fleurs sont hermaphrodites à six tépales (trois sépales et trois pétales similaires) de couleur jaune doré, s'ouvrant en étoile. Six étamines à filets et anthères jaunes. L'ovaire est supère à trois carpelles.
 </t>
         </is>
       </c>
@@ -563,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ail_dor%C3%A9</t>
+          <t>Ail_doré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +596,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule globuleuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ail_doré</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ail_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée géophyte bulbeuse poussant dans les lieux rocheux et frais ou les prairies de fauche (souvent sur calcaire), où elle fleurit de mai à juillet.
+Relativement rare, elle se rencontre surtout en Espagne et dans le sud de la France. Elle est également cultivée dans les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ail_doré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ail_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce menacée, présente dans le livre rouge de la flore menacée de France de l'INPN, l'Inventaire National du Patrimoine Naturel.
 </t>
